--- a/src/main/resources/ulkeler.xlsx
+++ b/src/main/resources/ulkeler.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C2CB33B-669E-47A2-95A0-4D1E55E9CD82}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
     <sheet name="Sayfa2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="574">
   <si>
     <t>Ülke (İngilizce)</t>
   </si>
@@ -1740,12 +1741,16 @@
   </si>
   <si>
     <t>Zimbabve</t>
+  </si>
+  <si>
+    <t>Nufus</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2158,23 +2163,23 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D191"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E191"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="25.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="4" customWidth="true" width="25.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2190,6 +2195,9 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>573</v>
+      </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -2204,6 +2212,9 @@
       <c r="D2" s="6" t="s">
         <v>7</v>
       </c>
+      <c r="E2" t="n">
+        <v>1500000.0</v>
+      </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
@@ -2316,6 +2327,9 @@
       <c r="D10" s="8" t="s">
         <v>30</v>
       </c>
+      <c r="E10" t="n">
+        <v>250000.0</v>
+      </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
@@ -2385,6 +2399,9 @@
       </c>
       <c r="D15" s="7" t="s">
         <v>49</v>
+      </c>
+      <c r="E15" t="n">
+        <v>54000.0</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4858,107 +4875,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="H21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="H24">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58E46F7E-EBF0-44F2-AA2D-0668D88E0AD1}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/src/main/resources/ulkeler.xlsx
+++ b/src/main/resources/ulkeler.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C2CB33B-669E-47A2-95A0-4D1E55E9CD82}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -14,7 +13,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -22,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="573">
   <si>
     <t>Ülke (İngilizce)</t>
   </si>
@@ -1741,16 +1740,12 @@
   </si>
   <si>
     <t>Zimbabve</t>
-  </si>
-  <si>
-    <t>Nufus</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2170,16 +2165,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E191"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D191"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" customWidth="true" width="25.7109375" collapsed="true"/>
+    <col min="1" max="4" width="25.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2195,9 +2190,6 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>573</v>
-      </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -2212,9 +2204,6 @@
       <c r="D2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="n">
-        <v>1500000.0</v>
-      </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
@@ -2327,9 +2316,6 @@
       <c r="D10" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E10" t="n">
-        <v>250000.0</v>
-      </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
@@ -2399,9 +2385,6 @@
       </c>
       <c r="D15" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="E15" t="n">
-        <v>54000.0</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4875,7 +4858,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4889,7 +4872,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58E46F7E-EBF0-44F2-AA2D-0668D88E0AD1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
